--- a/WorkBot/main/backend/ordering/OrderFiles/Johnston Paper/Johnston Paper_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Johnston Paper/Johnston Paper_Triphammer_20250704.xlsx
@@ -451,81 +451,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NP141</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bag Paper - Handle (14x10x15)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62.86</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.86</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D780</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Napkin White - Not Interfolded</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PL161NPFA</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oval IB Plates</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>64.49</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>128.98</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
